--- a/medicine/Enfance/Wiz_(collection)/Wiz_(collection).xlsx
+++ b/medicine/Enfance/Wiz_(collection)/Wiz_(collection).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wiz est une collection dédiée à la littérature d'enfance et de jeunesse initiée en 2002 par les éditions Albin Michel.
 Dirigée initialement par Anne Michel, cette collection propose beaucoup d'ouvrages relevant des littératures de l'imaginaire. Parmi les auteurs publiés, la génération confirmée (Robert McCammon, Clive Barker, Neil Gaiman, Jonathan Stroud…) côtoie la nouvelle garde (Rick Riordan, Melissa de la Cruz, Meg Cabot…).
@@ -515,13 +527,59 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Années 2000
-2002
-Le Quadrille des assassins par Hervé Jubert
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Quadrille des assassins par Hervé Jubert
 Abarat par Clive Barker
-Le Temps ne s'arrête pas pour les souris par Michael Hoeye
-2003
- Coraline par Neil Gaiman
+Le Temps ne s'arrête pas pour les souris par Michael Hoeye</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coraline par Neil Gaiman
 Les Sables du temps par Michael Hoeye
 Un tango du diable par Hervé Jubert
 Molly Moon et le livre magique de l'hypnose par Georgia Byng
@@ -529,18 +587,94 @@
 Reine du fleuve par  Eva Ibbotson
 La Fontaine aux vestales par Jean-François Nahmias
 Une folle famille par Philip Ardagh
-Une folle équipée par Philip Ardagh
-2004
- Une folle croisière par Philip Ardagh
+Une folle équipée par Philip Ardagh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Une folle croisière par Philip Ardagh
 Lion Boy par Zizou Corder
 Sabbat Samba par Hervé Jubert
 Molly Moon arrête le temps par Georgia Byng
 Les souris mènent la danse par Michael Hoeye
 Jours de lumière, nuits de guerre par Clive Barker
 L'Œil du Golem par Jonathan Stroud
-La Gladiatrice par Jean-François Nahmias
-2005
- Sortilèges et sacs à main par Sarah Mlynowski
+La Gladiatrice par Jean-François Nahmias</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sortilèges et sacs à main par Sarah Mlynowski
 Un été pour tout changer par Melissa de la Cruz
 Les Fugitifs par Zizou Corder
 Magyk par Angie Sage
@@ -552,9 +686,47 @@
 Les Treize Vies et demie du Capitaine Ours Bleu - 2 par Walter Moers
 Le Dernier Elfe par Silvana De Mari
 La Porte de Ptolémée par Jonathan Stroud
-Le Voleur de foudre par Rick Riordan
-2006
- Dans la peau d'un garçon par Chloë Rayban
+Le Voleur de foudre par Rick Riordan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dans la peau d'un garçon par Chloë Rayban
 Recherche sorcière désespérément par Eva Ibbotson
 Le Grand Vol par Angie Sage
 Maintenant, c'est ma vie par Meg Rosoff
@@ -568,9 +740,47 @@
 L'Elfe du Grand Nord par Lucy Daniel Raby
 Code Amrita par Stephen Cole
 Fabuleux bains de minuit par Melissa de la Cruz
-La Piste gauloise par Jean-François Nahmias
-2007
- Bienvenue à Griffstone par Eva Ibbotson
+La Piste gauloise par Jean-François Nahmias</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bienvenue à Griffstone par Eva Ibbotson
 L'Étrange Cas de l'assassinat de Katie la fêlée par Peter Abrahams
 Secrets de pêches par Jodi Lynn Anderson
 Une (irrésistible) envie de sucré par Meg Cabot
@@ -585,9 +795,47 @@
 La Malédiction d'Old Haven par Fabrice Colin
 Le Mystère du lac par Robert McCammon
 La Reine maudite par Angie Sage
-Les Vampires de Manhattan par Melissa de la Cruz
-2008
- Le Dernier Orc par Silvana De Mari
+Les Vampires de Manhattan par Melissa de la Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le Dernier Orc par Silvana De Mari
 L'Horloge du temps par Jeanette Winterson
 Justine sérieusement amoureuse par Chloë Rayban
 Le Premier qui pleure a perdu par Sherman Alexie
@@ -604,9 +852,47 @@
 Le Sort du titan par Rick Riordan
 Jack Perdu et le Royaume des ombres par Katherine Marsh
 La Quête par Angie Sage
-Le Maître des dragons par Fabrice Colin
-2009
- Les Sang-Bleu par Melissa de la Cruz
+Le Maître des dragons par Fabrice Colin</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Les Sang-Bleu par Melissa de la Cruz
 L'Élixir de rose par Michael Hoeye
 La Mystérieuse Affaire d'Echo Falls par Peter Abrahams
 Une (irrésistible) envie de dire oui par Meg Cabot
@@ -627,9 +913,47 @@
 Ne jamais tomber amoureuse par Melissa Marr
 Tattoo par Jennifer Lynn Barnes
 Peter et le Voleur d'ombres par Artur Balder et Ridley Pearson
-Années 2010
-2010
- Un endroit où se cacher par Joyce Carol Oates
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Un endroit où se cacher par Joyce Carol Oates
 La Bataille du labyrinthe par Rick Riordan
 Treize Raisons par Jay Asher
 Un amour de pêche par Jodi Lynn Anderson
@@ -647,9 +971,47 @@
 Hex Hall par Rachel Hawkins
 Odd et les Géants de glace par Neil Gaiman
 Le Secret de l'ange par Melissa de la Cruz
-Prada et Préjugés par Mandy Hubbard
-2011
- Mortels petits secrets par Laurie Faria Stolarz
+Prada et Préjugés par Mandy Hubbard</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mortels petits secrets par Laurie Faria Stolarz
 Bal de givre à New York par Fabrice Colin
 Le Peuple des minuscules par Steve Augarde
 Je ne sais plus pourquoi je t'aime par Gabrielle Zevin
@@ -678,9 +1040,47 @@
 Gótico par Rafael Ábalos
 Princesse Vinyle par Yvonne Prinz
 Jade, fille de l'eau par Nina Blazon
-Celandine par Steve Augarde
-2012
- Nosferas par Ulrike Schweikert
+Celandine par Steve Augarde</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nosferas par Ulrike Schweikert
 Hate List par Jennifer Brown
 La Pluie, les Garçons et autres choses mystérieuses par Susane Colasanti
 Graffiti Moon par Cat Crowley
@@ -705,9 +1105,47 @@
 Quand on s'embrasse sur la Lune par Stephen Tunney
 Le Messager du feu par Marina Diatchenko et Sergueï Diatchenko
 La Prophétie du héros par Rafael Ábalos
-Les Portes du Paradis par Melissa de la Cruz
-2013
- La Marque d'Athéna par Rick Riordan
+Les Portes du Paradis par Melissa de la Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Marque d'Athéna par Rick Riordan
 2 filles + 3 garçons - les parents = 10 choses que nous n'aurions pas dû faire par Sarah Mlynowski
 Double Jeu par Judy Blundell
 Irrésistible ! - L'Intégrale par Meg Cabot
@@ -728,9 +1166,47 @@
 Catacomb City par Hilary Wagner
 En mode VIP par Joanna Philbin
 Ready to rock! par Meg Cabot
-Un baiser pour la nuit par Anna Godbersen
-2014
- Automne par Jan Henrik Nielsen
+Un baiser pour la nuit par Anna Godbersen</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wiz_(collection)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des titres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Automne par Jan Henrik Nielsen
 Ce que j'ai oublié de te dire par Joyce Carol Oates
 Treize Raisons par Jay Asher
 Ne t'inquiète pas pour moi par Alice Kuipers
